--- a/학습자료/단답형/국어_57항.xlsx
+++ b/학습자료/단답형/국어_57항.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="33">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="57">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="135">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="136">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/국어_57항.xlsx
+++ b/학습자료/단답형/국어_57항.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="657">
   <si>
     <t>질문</t>
   </si>
@@ -1747,6 +1747,449 @@
   </si>
   <si>
     <t>배기다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀림없이 꼭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>반드시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>언행은 반드시 일치해야 한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비뚤어지거나 기울거나 굽지 아니하고 바르게</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>반듯이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고갯을 반듯이 들어라</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>반듯이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생김새가 아담하고 말끔하게</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>반듯이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실이나 주장에 반대되는 근거를 들어 증명함. 또는 그 증거</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>반증</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 사실을 뒤집을 만한 반증이 없다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>반증</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>간접적으로 증명에 도움을 줌. 또는 그 증거</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>방증</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>방증 자료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 때마다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>번번이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>약속을 번번이 어기다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>번번이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀펀하고 번듯하게</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>번번히</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>농지 정리를 하여 논 전체를 번번히 골랐다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생김새가 음전하고 미끈하게</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>넓히거나 멀게 하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>줄 간격을 벌리다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>속의 것을 드러내다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생선의 배를 갈라 벌리다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌리다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획하여 시작하거나 펼쳐 놓다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업을 벌이다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전쟁이나 말다툼 따위를 하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>논쟁을 벌이다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌이다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부족한 부분을 보태어 채움</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>온전하게 보호하여 유지함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보전(補塡)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보전(補塡)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자 손실을 보전(補塡)하였다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보전(保全)</t>
+  </si>
+  <si>
+    <t>보전(保全)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경 보전(保全)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생태계 보전(保全)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 보호하고 간수하여 남김</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보존(保存)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유물 보존(保存)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보존(保存)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[부딪다]를 강조하여 이르는 말. [-치-]는 강세 접사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부딪치다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>차와 차가 마주 부딪쳤다/부딪혔다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈길이나 시선 따위가 마주치다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그는 사람들과 눈길을 부딪치기/부딪히기를 꺼려하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜻하지 않게 어떤 사람과 만나다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 학교 정문에서 그와 부딪쳤다/부딪혔다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>의견이나 생각이 대립하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 진학 문제로 부모님과 부딪쳤다/부딪혔다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[부딪다]의 피동사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부딪히다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배가 세찬 파도에 부딪쳤다/부딪혔다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉혹한 현실에 부딪히다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파도가 바위에 부딪친다/부딪힌다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부딪치다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>취샛 하나가 그에게 몸을 부딪치며/부딪히며 시비를 걸어왔다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>행인에게 부딪쳐/부딪혀 넘어졌다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부딪히다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배가 빙산에 부딪쳐/부딪혀 가라앉았다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정한 기준에 따라 분류하거나 나누어 놓은 낱낱의 범위나 부분</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부문</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중공업 부문, 사회 과학 부문</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부문</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체를 이루는 작은 범위. 또는 전체를 몇 개로 나눈 것의 하나</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>썩은 부분을 잘라 내다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부분</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단단한 물체가 깨어져 여러 조각이 나다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌이 부서지다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>액체나 빛 따위가 세게 부딪쳐 산산이 흩어지다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇살이 부서지는/부수는/부시는 한낮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>목재 따위를 짜서 만든 물건이 제대로 쓸 수 없게 헐어지거나 깨어지다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>의자가 부서졌다/부쉈다/부셨다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>희망이나 기대 따위가 무너지다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>진학하려던 희망이 부서지다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서지다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각이 나게 깨뜨리다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌을 잘게 부수다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>문을 부수다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부수다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그릇 따위를 씻어 깨끗하게 하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부시다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그릇을 부시다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛이나 색채가 강렬하여 마주 보기가 어려운 상태에 있다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛에 눈이 부시다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모자라거나 미치지 못하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 일은 힘에 부친다/붙인다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 문제를 다른 곳에 넘기어 맡기다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안건을 회의에 부치다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 일을 거론하거나 문제 삼지 아니하는 상태에 있게 하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의 내용을 극비에 부치다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음을 다른 것에 의지하여 대신 나타내다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 마음을 시에 부쳐/붙여 임에게 보냈다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹고 자는 일을 제집이 아닌 다른 곳에서 하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼촌 집에 숙식을 부치다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별한 날에 즈음하여 의견을 나타내다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글날에 부치는/붙이는 글</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부치다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[붙다]의 사동사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우표를 부친다/붙인다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>흥정을 부친다/붙인다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>감시원을 부친다/붙인다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건을 부친다/붙인다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>취미를 부친다/붙인다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>붙이다</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2140,10 +2583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D360"/>
+  <dimension ref="A1:D441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="C345" sqref="C345:C360"/>
+    <sheetView tabSelected="1" topLeftCell="A423" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C424" sqref="C424:C441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7008,6 +7451,897 @@
         <v>528</v>
       </c>
     </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/국어_57항.xlsx
+++ b/학습자료/단답형/국어_57항.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346">
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -7652,7 +7652,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -7698,7 +7698,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>고갯을 반듯이 들어라</t>
+          <t>고개를 반듯이 들어라</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -7712,7 +7712,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -8458,7 +8458,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>취샛 하나가 그에게 몸을 부딪치며/부딪히며 시비를 걸어왔다</t>
+          <t>취객 하나가 그에게 몸을 부딪치며/부딪히며 시비를 걸어왔다</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -8552,7 +8552,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -8772,7 +8772,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/국어_57항.xlsx
+++ b/학습자료/단답형/국어_57항.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -6378,7 +6378,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>30년 만에 어머니를 만난 아들은 목멘 소리로 어머니를 불렀다</t>
+          <t>30년 만에 어머니를 만난 아들은 목맨/목멘 소리로 어머니를 불렀다</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335">
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384">
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389">
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -8492,7 +8492,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -8512,7 +8512,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -8852,7 +8852,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">

--- a/학습자료/단답형/국어_57항.xlsx
+++ b/학습자료/단답형/국어_57항.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262">
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266">
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281">
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="302">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305">
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307">
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308">
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322">
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="328">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338">
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345">
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="358">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="359">
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="360">
@@ -7652,7 +7652,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362">
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="363">
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372">
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="374">
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="377">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
@@ -8312,7 +8312,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="396">
@@ -8392,7 +8392,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402">
@@ -8492,7 +8492,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404">
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="406">
@@ -8552,7 +8552,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="410">
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416">
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="417">
@@ -8772,7 +8772,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="419">
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="420">
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421">
@@ -8852,7 +8852,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424">
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="426">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="430">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="436">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="438">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/국어_57항.xlsx
+++ b/학습자료/단답형/국어_57항.xlsx
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247">
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="250">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251">
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255">
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257">
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261">
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263">
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300">
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="311">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313">
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="317">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323">
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="324">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343">
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="344">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347">
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="348">
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349">
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="352">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354">
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364">
@@ -7712,7 +7712,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365">
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="371">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="378">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379">
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381">
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="382">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="392">
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="393">
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="394">
@@ -8312,7 +8312,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="395">
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="397">
@@ -8372,7 +8372,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398">
@@ -8392,7 +8392,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="399">
@@ -8412,7 +8412,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="400">
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="401">
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="403">
@@ -8512,7 +8512,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="405">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="408">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="412">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415">
@@ -8772,7 +8772,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="423">
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="429">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="431">
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="435">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="441">

--- a/학습자료/단답형/국어_57항.xlsx
+++ b/학습자료/단답형/국어_57항.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\PycharmProjects\study_new\학습자료\단답형\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Private-Quizlet\학습자료\단답형\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDB85FC-D136-43F7-BA34-149C48831597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="940">
   <si>
     <t>질문</t>
   </si>
@@ -1930,409 +1931,1126 @@
   </si>
   <si>
     <t>물에 젖어서 부피가 커지다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>붇다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>오래되서 불은 국수는 맛이 없다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>분량이나 수효가 많아지다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>체중이 붇다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(주로 '몸'을 주어로 하여) 살이 찌다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>바람이 일어나서 움직이다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불다</t>
   </si>
   <si>
     <t>유행, 풍조, 변화 따위가 일어나 휩쓸다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>영어 회화 바람이 불다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>살가죽이나 어떤 기관이 부풀어 오르다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>붓다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>얼굴이 붓다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>불입금, 이자, 곗돈 따위를 일정한 기간마다 내다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>은행에 적금을 붓다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>붇다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사건의 단서, 또는 일의 실마리</t>
   </si>
   <si>
     <t>사단</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사건의 단서, 또는 일의 실마리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 일의 사단을 구하는 작업이 우선 중요했다</t>
   </si>
   <si>
     <t>사고나 탈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 일의 사단을 구하는 작업이 우선 중요했다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사달</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>일이 꺼림직하게 되어 가더니만 결국 사달이 났다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>삭다(음식이 소화되다, 마음이 가라앉다)'의 사동사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭이다</t>
   </si>
   <si>
     <t>돌도 삭일/삭힐 나이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>분을 삭이다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>삭다(발효되어 맛이 들다)'의 사동사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭히다</t>
   </si>
   <si>
     <t>김치를 삭히다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭히다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삭이다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(형용사) 살이 많고 튼실하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>살지다</t>
   </si>
   <si>
     <t>살진/살찐 암소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>살지다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>땅이 기름지다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>살진/살찐 옥토</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(동사) 살이 필요 이상으로 많아지다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>살찌다</t>
   </si>
   <si>
     <t>살져서/살쪄서 바지가 작다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>살찌다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>한숨도 자지 아니하고 밤을 지내다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>새우다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>밤을 새워/세워 공부하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>서다'의 사동사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세우다</t>
   </si>
   <si>
     <t>머리를 꼿꼿이 세우다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>대비책을 세우다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>주장이나 고집 따위를 강하게 내세우다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>고집을 세우다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>공로나 업적 따위를 이룩하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>육상 대회에서 신기록을 세우다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세우다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>성공과 실패를 아울러 이르는 말</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>성패</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>성패를 좌우하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>승리와 패배를 아울러 이르는 말</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>승패</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>승패에 연연하지 않는다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기분이나 몸이 상쾌하고 깨끗함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>쇄락</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>정신이 쇄락하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기분이 쇄락하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>쇠약하여 말라서 떨어짐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>쇠락</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>병이 들어 쇠락한 몸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>근심과 걱정으로 맥이 없이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>시름없이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>그는 어머니를 생각하며 시름없이 허공만 바라보고 있다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>아무 생각이 없이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>그는 한구석에 시름없이 서 있었다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>말이나 하는 짓이 실답지 못하게</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실없이</t>
   </si>
   <si>
     <t>실없이 하는 말</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실없이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>어떤 일이나 행동을 하게 하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시키다</t>
   </si>
   <si>
     <t>인부에게 일을 시키다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>음식 따위를 주문하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>분식집에 식사를 시키다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시키다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>식다(더운 기가 없어지다)'의 사동사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식히다</t>
   </si>
   <si>
     <t>끓인 물을 시킨다/식힌다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>식히다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>알지도 못하면서 알고 있는 척하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그녀는 모르면서 하는 체하다가 망신만 당했다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>아는 체하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그녀는 모르면서 아는 체하다가 망신만 당했다</t>
   </si>
   <si>
     <t>어떤 일에 관심을 가지는 듯한 태도를 보이다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알은체하다</t>
   </si>
   <si>
     <t>이제 제법 집안일을 아는 체한다/알은체한다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>알은체하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사람을 보고 인사하는 표정을 짓다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>알은체하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(형용사) '아니다'의 활용형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니오</t>
   </si>
   <si>
     <t>그것은 내 잘못이 아니오</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니오</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(감탄사) 부정하여 대답할 때 쓰는 말</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니요</t>
   </si>
   <si>
     <t>"숙제 다 했니?", "아니요, 조금 남았어요."</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예 &lt;=&gt; 아니요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>말이나 행동을 분명히 하지 못하고 우물쭈물하는 모양</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아름아름</t>
   </si>
   <si>
     <t>일을 적당히 하고 눈을 속여 넘기는 모양</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>서로 아는 관계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아름아름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>알음알음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>지혜는 우리 집을 알음알음으로 찾아왔다고 했다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>서로 가진 친분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>그와는 중학교 동창으로 알음알음이 있다</t>
+  </si>
+  <si>
+    <t>까마귀 새끼가 자라서 늙은 어미에게 먹이를 물어다 주는 일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안갚음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자식이 커서 부모를 봉양하는 일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반포지효</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남이 저에게 해를 준 대로 저도 그에게 해를 줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앙갚음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그에게 내가 당한 수모를 앙갚음할 날이 빨이 와야 할 텐데</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람끼리 서로 아는 일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그와는 서로 알음이 있는 사이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아는 일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앎은 힘이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 해'가 줄어든 말</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 나 어떡해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떡해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻다'의 활용형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즈음 어떻게 지내십니까</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸의 살이 빠져 파리하게 되다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀쭉하게 여윈/여읜 얼굴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여위다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모나 사랑하는 사람이 죽어서 이별하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여의다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아버지를 여의다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸을 시집보내다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>막내딸을 여의다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷을 입은 모양새</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷거리가 좋다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷을 걸어 두도록 만든 물건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외투를 옷걸이에 걸었다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷거리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷걸이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(부사) 왜 그런지 모르게, '왜인지'의 준말</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 왠지 기분이 좋다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왠지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(관형사) 어찌 된</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웬 날벼락이람</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떠한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웬 놈이야?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위에서 크게 벗어나지 아니할 만큼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸에 좋다는 약도 웬만큼 먹어야지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보통은 넘는 정도로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그녀는 영어를 웬만큼 한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웬만큼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조직이나 사업체 따위를 운용하고 경영함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조직의 운영에 대한 책임을 지다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 것을 움직이게 하거나 부리어 씀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>법의 운용을 멋대로 하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>운용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사물이나 일이 생겨남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유래가 깊다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>같거나 비슷한 예</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유례를 찾아볼 수 없는 호황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유래</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유례</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무서움을 느낄 만큼 깊숙하고 후미지다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>으슥한/이슥한 골목길</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>으슥하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아주 조용하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>으슥한/이슥한 밤거리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤이 꽤 깊다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아버지는 밤이 으슥해서야/이슥해서야 집에 돌아오셨다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지난 시간이 얼마간 오래다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이웃집 닭은 세 홰나 운 지 이슥하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슥하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금 지난 뒤에</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이따가 갈게</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이따가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>있다'에 연결어미 '-다가'가 붙은 말</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>집에 있다가 나왔다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>있다가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아주, 전혀, 절대로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출입을 일절(一切) 금하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일절(一切)</t>
+  </si>
+  <si>
+    <t>일절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 것, 전부 또는 완전히</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일체(一切) 비용은 회사가 부담한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일체(一切)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가졌던 물건이 자신도 모르게 없어져 그것을 갖지 아니하게 되다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가방을 잃다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅이나 자리가 없어져 그것을 갖지 못하게 되거나 거기에서 살지 못하게 되다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직장을 잃다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가까운 사람이 죽어서 그와 이별하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>병으로 조강지처를 잃다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잃다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한번 알았던 것을 기억하지 못하거나 기억해 내지 못하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학 공식을 잊다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억해 두어야 할 것을 한순간 미처 생각하여 내지 못하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요한 약속을 잊다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잊다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈을 받고 자기의 물건을 남에게 빌려 줌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임대 가격이 싸다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈을 내고 남의 물건을 빌려 씀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무실을 임차하였다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잇따르다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추모 행렬이 잇달다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잇달다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정한 모양이 있는 사물을 다른 사물에 이어서 달다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤를 이어 따르다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사건이나 행동 따위가 이어 발생하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비난이 잇따르다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보도 차량이 잇달았다/잇따랐다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화물칸을 객차 뒤에 잇달았다/잇따랐다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>길이, 넓이, 부피 따위가 덜하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨알처럼 작은/적은 글씨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정하여진 크기에 모자라서 맞지 아니하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷이 작다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람됨이나 생각 따위가 좁고 보잘것 없다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 사람은 큰일 하기에는 그릇이 작다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수효나 분량, 정도가 일정한 기준에 미치지 못하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험이 적다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 있는 상태 그대로 있다는 뜻을 나타내는 말</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷을 입은 채로 물에 들어갔다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노루를 산 채로 잡았다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럴듯하게 꾸미는 거짓 태도나 모양</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>척</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>못 본 체 딴전을 부리다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아는 체는 왜 하니?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(일부 명사 뒤에 붙어) '그대로', 전부의 뜻을 더하는 접미사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통째로 먹어라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>껍질째 갈아서 만든 주스이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(수량, 기간을 나타내는 명사 또는 수사 뒤에 붙어) 차례의 뜻을 더하는 접미사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇째, 사흘째, 며칠째, 두 잔째</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>째</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 일이나 문제 따위에 대하여 다시 생각함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 일은 재고의 여지도 없다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수준이나 정도 따위를 끌어올림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산성의 제고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>능률의 제고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감각이 둔하고 아리다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리가 저리고 아파서 몸을 자주 뒤틀었다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저리다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>절다'의 사동사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배추를 소금물에 절이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>절이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>젖다(뒤로 기울다)'의 사동사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고개를 뒤로 젖히다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안쪽이 겉으로 나오게 하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(보조 동사) 앞말이 뜻하는 행동을 막힌데 없이 해치움을 나타내는 말</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노래를 불러 젖히다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>젖히다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코트 자락을 젖히고/제치고 앉다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거치적거리지 않게 처리하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 선수는 상대 선수들을 젖히고/제치고 골을 넣었다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정한 대상이나 범위에서 빼다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 나를 젖혀/제쳐 두고 너희들끼리 놀러 갈수 있니?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경쟁 상대보다 우위에 서다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중소기업이 대기업을 젖혔다/제쳤다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일을 미루다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그는 제집 일을 젖혀/제쳐 두고 남의 집 일에 발 벗고 나선다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제치다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바짝 끓여서 양념이 배어들게 하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생선을 조린다/졸인다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조리다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸다(물이 증발하여 분량이 적어지다)'의 사동사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌개를 졸이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>속을 태우다시피 초조해하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음을 졸이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표, 이상, 행복 따위를 추구하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명예를 좇는/쫓는 젊은이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남의 말이나 뜻을 따르다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아버지의 유언을 좇다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좇다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 대상을 잡거나 만나기 위하여 뒤를 급히 따르다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸음이나 잡념 따위를 물리치다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>범인을 급하게 좇았다/쫓았다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠을 좇았다/쫓았다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쫓다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배를 곯다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몹시 배룰 주렸다/줄였다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주리다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몹시 아쉬워했다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그는 모성애에 주려/줄여 있었다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>줄다'의 사동사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>집을 줄이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체중을 줄이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해를 줄이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>살림을 줄이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무 시간을 줄이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>줄이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬며시 힘을 주는 모양</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지그시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈을 지그시 감았다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조용히 참고 견디는 모양</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아픔을 지그시 참다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이가 비교적 많아 듬직하게</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그는 나이가 지긋이 들어 보였다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지긋이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 높은 단계로 가기 위하여 어떠한 것을 하지 아니함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남북 사이의 이질화를 지양하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 목표로 뜻이 쏠리어 향함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복지 국가를 지향하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지양</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지향</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2412,6 +3130,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3987720</xdr:colOff>
+      <xdr:row>651</xdr:row>
+      <xdr:rowOff>202860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3988080</xdr:colOff>
+      <xdr:row>651</xdr:row>
+      <xdr:rowOff>203220</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="잉크 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D01F52CE-08A6-C811-C9BA-E8901D131CEE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3987720" y="140753760"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="잉크 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D01F52CE-08A6-C811-C9BA-E8901D131CEE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3978720" y="140744760"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-01-07T13:23:05.031"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'0'0'-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="344">0 0 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2698,16 +3514,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D514"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
-      <selection activeCell="B511" sqref="B511:C514"/>
+    <sheetView tabSelected="1" topLeftCell="A646" workbookViewId="0">
+      <selection activeCell="C667" sqref="C667:C670"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="100.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2721,7 +3540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2735,7 +3554,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2749,7 +3568,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2763,7 +3582,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2777,7 +3596,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2791,7 +3610,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2805,7 +3624,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2819,7 +3638,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2833,7 +3652,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2847,7 +3666,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2861,7 +3680,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2875,7 +3694,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2889,7 +3708,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2903,7 +3722,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2917,7 +3736,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2931,7 +3750,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2945,7 +3764,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2959,7 +3778,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2973,7 +3792,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2987,7 +3806,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -3001,7 +3820,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -3015,7 +3834,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -3029,7 +3848,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -3043,7 +3862,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -3057,7 +3876,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -3071,7 +3890,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -3085,7 +3904,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -3099,7 +3918,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -3113,7 +3932,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -3127,7 +3946,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -3141,7 +3960,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -3155,7 +3974,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -3169,7 +3988,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -3183,7 +4002,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -3197,7 +4016,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -3211,7 +4030,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -3225,7 +4044,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -3239,7 +4058,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -3253,7 +4072,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -3267,7 +4086,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>69</v>
       </c>
@@ -3281,7 +4100,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -3295,7 +4114,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -3309,7 +4128,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -3323,7 +4142,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -3337,7 +4156,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -3351,7 +4170,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -3365,7 +4184,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -3379,7 +4198,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -3393,7 +4212,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -3407,7 +4226,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -3421,7 +4240,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -3435,7 +4254,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>90</v>
       </c>
@@ -3449,7 +4268,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>91</v>
       </c>
@@ -3463,7 +4282,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -3477,7 +4296,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>95</v>
       </c>
@@ -3491,7 +4310,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -3505,7 +4324,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>98</v>
       </c>
@@ -3519,7 +4338,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -3533,7 +4352,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -3547,7 +4366,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -3561,7 +4380,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -3575,7 +4394,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -3589,7 +4408,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>107</v>
       </c>
@@ -3603,7 +4422,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>108</v>
       </c>
@@ -3617,7 +4436,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -3631,7 +4450,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -3645,7 +4464,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>113</v>
       </c>
@@ -3659,7 +4478,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>115</v>
       </c>
@@ -3673,7 +4492,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -3687,7 +4506,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>119</v>
       </c>
@@ -3701,7 +4520,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>120</v>
       </c>
@@ -3715,7 +4534,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>122</v>
       </c>
@@ -3729,7 +4548,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>123</v>
       </c>
@@ -3743,7 +4562,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>126</v>
       </c>
@@ -3757,7 +4576,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>127</v>
       </c>
@@ -3771,7 +4590,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>129</v>
       </c>
@@ -3785,7 +4604,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>130</v>
       </c>
@@ -3799,7 +4618,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>133</v>
       </c>
@@ -3813,7 +4632,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>134</v>
       </c>
@@ -3827,7 +4646,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>136</v>
       </c>
@@ -3841,7 +4660,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>137</v>
       </c>
@@ -3855,7 +4674,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>140</v>
       </c>
@@ -3869,7 +4688,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>141</v>
       </c>
@@ -3883,7 +4702,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>143</v>
       </c>
@@ -3897,7 +4716,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>144</v>
       </c>
@@ -3911,7 +4730,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>147</v>
       </c>
@@ -3925,7 +4744,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -3939,7 +4758,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>150</v>
       </c>
@@ -3953,7 +4772,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>153</v>
       </c>
@@ -3967,7 +4786,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>154</v>
       </c>
@@ -3981,7 +4800,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>155</v>
       </c>
@@ -3995,7 +4814,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>156</v>
       </c>
@@ -4009,7 +4828,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>158</v>
       </c>
@@ -4023,7 +4842,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>159</v>
       </c>
@@ -4037,7 +4856,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>160</v>
       </c>
@@ -4051,7 +4870,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>161</v>
       </c>
@@ -4065,7 +4884,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>164</v>
       </c>
@@ -4079,7 +4898,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>165</v>
       </c>
@@ -4093,7 +4912,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>167</v>
       </c>
@@ -4107,7 +4926,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>168</v>
       </c>
@@ -4121,7 +4940,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>169</v>
       </c>
@@ -4135,7 +4954,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>170</v>
       </c>
@@ -4149,7 +4968,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>173</v>
       </c>
@@ -4163,7 +4982,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>174</v>
       </c>
@@ -4177,7 +4996,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>176</v>
       </c>
@@ -4191,7 +5010,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>177</v>
       </c>
@@ -4205,7 +5024,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>178</v>
       </c>
@@ -4219,7 +5038,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>179</v>
       </c>
@@ -4233,7 +5052,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>182</v>
       </c>
@@ -4247,7 +5066,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>183</v>
       </c>
@@ -4261,7 +5080,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>184</v>
       </c>
@@ -4275,7 +5094,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>185</v>
       </c>
@@ -4289,7 +5108,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>187</v>
       </c>
@@ -4303,7 +5122,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>188</v>
       </c>
@@ -4317,7 +5136,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>189</v>
       </c>
@@ -4331,7 +5150,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>190</v>
       </c>
@@ -4345,7 +5164,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>191</v>
       </c>
@@ -4359,7 +5178,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>192</v>
       </c>
@@ -4373,7 +5192,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>195</v>
       </c>
@@ -4387,7 +5206,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>196</v>
       </c>
@@ -4401,7 +5220,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>197</v>
       </c>
@@ -4415,7 +5234,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>198</v>
       </c>
@@ -4429,7 +5248,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>199</v>
       </c>
@@ -4443,7 +5262,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>200</v>
       </c>
@@ -4457,7 +5276,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>202</v>
       </c>
@@ -4471,7 +5290,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>203</v>
       </c>
@@ -4485,7 +5304,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>206</v>
       </c>
@@ -4499,7 +5318,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>207</v>
       </c>
@@ -4513,7 +5332,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>209</v>
       </c>
@@ -4527,7 +5346,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>210</v>
       </c>
@@ -4541,7 +5360,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>213</v>
       </c>
@@ -4555,7 +5374,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>214</v>
       </c>
@@ -4569,7 +5388,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>216</v>
       </c>
@@ -4583,7 +5402,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>217</v>
       </c>
@@ -4597,7 +5416,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>220</v>
       </c>
@@ -4611,7 +5430,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>221</v>
       </c>
@@ -4625,7 +5444,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>223</v>
       </c>
@@ -4639,7 +5458,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>224</v>
       </c>
@@ -4653,7 +5472,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>225</v>
       </c>
@@ -4667,7 +5486,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>228</v>
       </c>
@@ -4681,7 +5500,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>229</v>
       </c>
@@ -4695,7 +5514,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>231</v>
       </c>
@@ -4709,7 +5528,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>232</v>
       </c>
@@ -4723,7 +5542,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>235</v>
       </c>
@@ -4737,7 +5556,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>236</v>
       </c>
@@ -4751,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>237</v>
       </c>
@@ -4765,7 +5584,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>238</v>
       </c>
@@ -4779,7 +5598,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>240</v>
       </c>
@@ -4793,7 +5612,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>241</v>
       </c>
@@ -4807,7 +5626,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>242</v>
       </c>
@@ -4821,7 +5640,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>243</v>
       </c>
@@ -4835,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>245</v>
       </c>
@@ -4849,7 +5668,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>246</v>
       </c>
@@ -4863,7 +5682,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>247</v>
       </c>
@@ -4877,7 +5696,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>248</v>
       </c>
@@ -4891,7 +5710,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>249</v>
       </c>
@@ -4905,7 +5724,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>252</v>
       </c>
@@ -4919,7 +5738,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>253</v>
       </c>
@@ -4933,7 +5752,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>254</v>
       </c>
@@ -4947,7 +5766,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>255</v>
       </c>
@@ -4961,7 +5780,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>257</v>
       </c>
@@ -4975,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>258</v>
       </c>
@@ -4989,7 +5808,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>259</v>
       </c>
@@ -5003,7 +5822,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>260</v>
       </c>
@@ -5017,7 +5836,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>261</v>
       </c>
@@ -5031,7 +5850,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>262</v>
       </c>
@@ -5045,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>265</v>
       </c>
@@ -5059,7 +5878,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>266</v>
       </c>
@@ -5073,7 +5892,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>268</v>
       </c>
@@ -5087,7 +5906,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>269</v>
       </c>
@@ -5101,7 +5920,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>270</v>
       </c>
@@ -5115,7 +5934,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>271</v>
       </c>
@@ -5129,7 +5948,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>274</v>
       </c>
@@ -5143,7 +5962,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>275</v>
       </c>
@@ -5157,7 +5976,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>277</v>
       </c>
@@ -5171,7 +5990,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>278</v>
       </c>
@@ -5185,7 +6004,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>280</v>
       </c>
@@ -5199,7 +6018,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>281</v>
       </c>
@@ -5213,7 +6032,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>284</v>
       </c>
@@ -5227,7 +6046,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>285</v>
       </c>
@@ -5241,7 +6060,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>287</v>
       </c>
@@ -5255,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>288</v>
       </c>
@@ -5269,7 +6088,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>291</v>
       </c>
@@ -5283,7 +6102,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>292</v>
       </c>
@@ -5297,7 +6116,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>293</v>
       </c>
@@ -5311,7 +6130,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>294</v>
       </c>
@@ -5325,7 +6144,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>295</v>
       </c>
@@ -5339,7 +6158,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>296</v>
       </c>
@@ -5353,7 +6172,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>298</v>
       </c>
@@ -5367,7 +6186,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>299</v>
       </c>
@@ -5381,7 +6200,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>301</v>
       </c>
@@ -5395,7 +6214,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>302</v>
       </c>
@@ -5409,7 +6228,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>305</v>
       </c>
@@ -5423,7 +6242,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>306</v>
       </c>
@@ -5437,7 +6256,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>307</v>
       </c>
@@ -5451,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>308</v>
       </c>
@@ -5465,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>309</v>
       </c>
@@ -5479,7 +6298,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>311</v>
       </c>
@@ -5493,7 +6312,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>312</v>
       </c>
@@ -5507,7 +6326,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>313</v>
       </c>
@@ -5521,7 +6340,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>314</v>
       </c>
@@ -5535,7 +6354,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>317</v>
       </c>
@@ -5549,7 +6368,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>318</v>
       </c>
@@ -5563,7 +6382,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>319</v>
       </c>
@@ -5577,7 +6396,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>320</v>
       </c>
@@ -5591,7 +6410,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>321</v>
       </c>
@@ -5605,7 +6424,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>322</v>
       </c>
@@ -5619,7 +6438,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>324</v>
       </c>
@@ -5633,7 +6452,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>325</v>
       </c>
@@ -5644,10 +6463,10 @@
         <v>316</v>
       </c>
       <c r="D210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>326</v>
       </c>
@@ -5661,7 +6480,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>327</v>
       </c>
@@ -5675,7 +6494,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>330</v>
       </c>
@@ -5689,7 +6508,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>331</v>
       </c>
@@ -5703,7 +6522,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>333</v>
       </c>
@@ -5717,7 +6536,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>334</v>
       </c>
@@ -5731,7 +6550,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>335</v>
       </c>
@@ -5745,7 +6564,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>336</v>
       </c>
@@ -5759,7 +6578,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>337</v>
       </c>
@@ -5770,10 +6589,10 @@
         <v>339</v>
       </c>
       <c r="D219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>340</v>
       </c>
@@ -5787,7 +6606,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>341</v>
       </c>
@@ -5801,7 +6620,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>342</v>
       </c>
@@ -5815,7 +6634,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>343</v>
       </c>
@@ -5829,7 +6648,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>345</v>
       </c>
@@ -5843,7 +6662,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>346</v>
       </c>
@@ -5857,7 +6676,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>349</v>
       </c>
@@ -5871,7 +6690,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>350</v>
       </c>
@@ -5885,7 +6704,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>352</v>
       </c>
@@ -5899,7 +6718,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>353</v>
       </c>
@@ -5913,7 +6732,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>356</v>
       </c>
@@ -5927,7 +6746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>357</v>
       </c>
@@ -5941,7 +6760,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>358</v>
       </c>
@@ -5955,7 +6774,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>359</v>
       </c>
@@ -5969,7 +6788,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>361</v>
       </c>
@@ -5983,7 +6802,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>362</v>
       </c>
@@ -5997,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>363</v>
       </c>
@@ -6011,7 +6830,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>365</v>
       </c>
@@ -6025,7 +6844,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>366</v>
       </c>
@@ -6039,7 +6858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>367</v>
       </c>
@@ -6053,7 +6872,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>368</v>
       </c>
@@ -6067,7 +6886,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>371</v>
       </c>
@@ -6081,7 +6900,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>372</v>
       </c>
@@ -6095,7 +6914,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>374</v>
       </c>
@@ -6109,7 +6928,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>375</v>
       </c>
@@ -6123,7 +6942,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>376</v>
       </c>
@@ -6137,7 +6956,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>377</v>
       </c>
@@ -6151,7 +6970,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>378</v>
       </c>
@@ -6165,7 +6984,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>379</v>
       </c>
@@ -6179,7 +6998,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>382</v>
       </c>
@@ -6193,7 +7012,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>383</v>
       </c>
@@ -6207,7 +7026,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>384</v>
       </c>
@@ -6221,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>385</v>
       </c>
@@ -6235,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>387</v>
       </c>
@@ -6249,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>388</v>
       </c>
@@ -6263,7 +7082,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>391</v>
       </c>
@@ -6277,7 +7096,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>392</v>
       </c>
@@ -6291,7 +7110,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>394</v>
       </c>
@@ -6305,7 +7124,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>395</v>
       </c>
@@ -6319,7 +7138,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>398</v>
       </c>
@@ -6333,7 +7152,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>399</v>
       </c>
@@ -6347,7 +7166,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>400</v>
       </c>
@@ -6361,7 +7180,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>401</v>
       </c>
@@ -6375,7 +7194,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>403</v>
       </c>
@@ -6389,7 +7208,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>404</v>
       </c>
@@ -6403,7 +7222,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>405</v>
       </c>
@@ -6417,7 +7236,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>406</v>
       </c>
@@ -6431,7 +7250,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>409</v>
       </c>
@@ -6445,7 +7264,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>410</v>
       </c>
@@ -6459,7 +7278,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>412</v>
       </c>
@@ -6473,7 +7292,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>413</v>
       </c>
@@ -6487,7 +7306,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>414</v>
       </c>
@@ -6501,7 +7320,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>415</v>
       </c>
@@ -6515,7 +7334,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>418</v>
       </c>
@@ -6529,7 +7348,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>419</v>
       </c>
@@ -6543,7 +7362,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>420</v>
       </c>
@@ -6557,7 +7376,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>421</v>
       </c>
@@ -6571,7 +7390,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>422</v>
       </c>
@@ -6585,7 +7404,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>423</v>
       </c>
@@ -6599,7 +7418,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>424</v>
       </c>
@@ -6613,7 +7432,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>425</v>
       </c>
@@ -6627,7 +7446,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>427</v>
       </c>
@@ -6641,7 +7460,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>428</v>
       </c>
@@ -6655,7 +7474,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>429</v>
       </c>
@@ -6669,7 +7488,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>430</v>
       </c>
@@ -6683,7 +7502,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>433</v>
       </c>
@@ -6697,7 +7516,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>434</v>
       </c>
@@ -6708,10 +7527,10 @@
         <v>432</v>
       </c>
       <c r="D286">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>436</v>
       </c>
@@ -6722,10 +7541,10 @@
         <v>432</v>
       </c>
       <c r="D287">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>437</v>
       </c>
@@ -6739,7 +7558,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>438</v>
       </c>
@@ -6753,7 +7572,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>441</v>
       </c>
@@ -6767,7 +7586,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>442</v>
       </c>
@@ -6781,7 +7600,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>444</v>
       </c>
@@ -6795,7 +7614,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>445</v>
       </c>
@@ -6806,10 +7625,10 @@
         <v>447</v>
       </c>
       <c r="D293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>448</v>
       </c>
@@ -6823,7 +7642,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>449</v>
       </c>
@@ -6837,7 +7656,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>450</v>
       </c>
@@ -6851,7 +7670,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>451</v>
       </c>
@@ -6865,7 +7684,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>453</v>
       </c>
@@ -6879,7 +7698,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>454</v>
       </c>
@@ -6893,7 +7712,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>457</v>
       </c>
@@ -6907,7 +7726,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>458</v>
       </c>
@@ -6921,7 +7740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>460</v>
       </c>
@@ -6935,7 +7754,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>461</v>
       </c>
@@ -6949,7 +7768,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>462</v>
       </c>
@@ -6963,7 +7782,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>465</v>
       </c>
@@ -6977,7 +7796,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>466</v>
       </c>
@@ -6991,7 +7810,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>468</v>
       </c>
@@ -7005,7 +7824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>469</v>
       </c>
@@ -7019,7 +7838,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>470</v>
       </c>
@@ -7033,7 +7852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>471</v>
       </c>
@@ -7047,7 +7866,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>474</v>
       </c>
@@ -7061,7 +7880,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>475</v>
       </c>
@@ -7075,7 +7894,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>477</v>
       </c>
@@ -7089,7 +7908,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>478</v>
       </c>
@@ -7100,10 +7919,10 @@
         <v>480</v>
       </c>
       <c r="D314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>481</v>
       </c>
@@ -7117,7 +7936,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>482</v>
       </c>
@@ -7131,7 +7950,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>483</v>
       </c>
@@ -7145,7 +7964,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>485</v>
       </c>
@@ -7159,7 +7978,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>486</v>
       </c>
@@ -7173,7 +7992,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>487</v>
       </c>
@@ -7187,7 +8006,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>488</v>
       </c>
@@ -7201,7 +8020,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>490</v>
       </c>
@@ -7215,7 +8034,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>491</v>
       </c>
@@ -7229,7 +8048,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>492</v>
       </c>
@@ -7243,7 +8062,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>493</v>
       </c>
@@ -7257,7 +8076,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>494</v>
       </c>
@@ -7271,7 +8090,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>495</v>
       </c>
@@ -7285,7 +8104,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>497</v>
       </c>
@@ -7299,7 +8118,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>498</v>
       </c>
@@ -7313,7 +8132,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>499</v>
       </c>
@@ -7327,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>500</v>
       </c>
@@ -7341,7 +8160,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>501</v>
       </c>
@@ -7355,7 +8174,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>502</v>
       </c>
@@ -7369,7 +8188,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>503</v>
       </c>
@@ -7383,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>504</v>
       </c>
@@ -7397,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>505</v>
       </c>
@@ -7411,7 +8230,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>506</v>
       </c>
@@ -7425,7 +8244,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>508</v>
       </c>
@@ -7439,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>509</v>
       </c>
@@ -7453,7 +8272,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>510</v>
       </c>
@@ -7467,7 +8286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>511</v>
       </c>
@@ -7481,7 +8300,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>513</v>
       </c>
@@ -7495,7 +8314,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>514</v>
       </c>
@@ -7509,7 +8328,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>515</v>
       </c>
@@ -7523,7 +8342,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>516</v>
       </c>
@@ -7537,7 +8356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>518</v>
       </c>
@@ -7551,7 +8370,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>519</v>
       </c>
@@ -7565,7 +8384,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>520</v>
       </c>
@@ -7579,7 +8398,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>521</v>
       </c>
@@ -7593,7 +8412,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>523</v>
       </c>
@@ -7607,7 +8426,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>524</v>
       </c>
@@ -7621,7 +8440,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>525</v>
       </c>
@@ -7635,7 +8454,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>526</v>
       </c>
@@ -7649,7 +8468,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>527</v>
       </c>
@@ -7663,7 +8482,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>528</v>
       </c>
@@ -7677,7 +8496,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>529</v>
       </c>
@@ -7691,7 +8510,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>530</v>
       </c>
@@ -7705,7 +8524,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>532</v>
       </c>
@@ -7719,7 +8538,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>533</v>
       </c>
@@ -7733,7 +8552,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>534</v>
       </c>
@@ -7747,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>535</v>
       </c>
@@ -7761,7 +8580,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>537</v>
       </c>
@@ -7775,7 +8594,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>538</v>
       </c>
@@ -7789,7 +8608,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>540</v>
       </c>
@@ -7803,7 +8622,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>541</v>
       </c>
@@ -7817,7 +8636,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>542</v>
       </c>
@@ -7831,7 +8650,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>544</v>
       </c>
@@ -7845,7 +8664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>545</v>
       </c>
@@ -7859,7 +8678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>547</v>
       </c>
@@ -7873,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>548</v>
       </c>
@@ -7887,7 +8706,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>550</v>
       </c>
@@ -7901,7 +8720,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>551</v>
       </c>
@@ -7915,7 +8734,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>553</v>
       </c>
@@ -7929,7 +8748,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>554</v>
       </c>
@@ -7943,7 +8762,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>555</v>
       </c>
@@ -7957,7 +8776,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>557</v>
       </c>
@@ -7971,7 +8790,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>558</v>
       </c>
@@ -7985,7 +8804,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>559</v>
       </c>
@@ -7999,7 +8818,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>560</v>
       </c>
@@ -8013,7 +8832,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>562</v>
       </c>
@@ -8027,7 +8846,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>563</v>
       </c>
@@ -8041,7 +8860,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>564</v>
       </c>
@@ -8055,7 +8874,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>565</v>
       </c>
@@ -8069,7 +8888,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>567</v>
       </c>
@@ -8083,7 +8902,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>568</v>
       </c>
@@ -8094,10 +8913,10 @@
         <v>566</v>
       </c>
       <c r="D385">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>570</v>
       </c>
@@ -8111,7 +8930,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>571</v>
       </c>
@@ -8125,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>572</v>
       </c>
@@ -8136,10 +8955,10 @@
         <v>566</v>
       </c>
       <c r="D388">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>574</v>
       </c>
@@ -8153,7 +8972,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>575</v>
       </c>
@@ -8167,7 +8986,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>577</v>
       </c>
@@ -8181,7 +9000,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>578</v>
       </c>
@@ -8195,7 +9014,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>579</v>
       </c>
@@ -8209,7 +9028,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>580</v>
       </c>
@@ -8223,7 +9042,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>581</v>
       </c>
@@ -8237,7 +9056,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>582</v>
       </c>
@@ -8251,7 +9070,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>583</v>
       </c>
@@ -8265,7 +9084,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>584</v>
       </c>
@@ -8279,7 +9098,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>586</v>
       </c>
@@ -8293,7 +9112,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>587</v>
       </c>
@@ -8307,7 +9126,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>588</v>
       </c>
@@ -8321,7 +9140,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>589</v>
       </c>
@@ -8335,7 +9154,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>590</v>
       </c>
@@ -8349,7 +9168,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>591</v>
       </c>
@@ -8363,7 +9182,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>592</v>
       </c>
@@ -8377,7 +9196,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>594</v>
       </c>
@@ -8391,7 +9210,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>595</v>
       </c>
@@ -8405,7 +9224,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>597</v>
       </c>
@@ -8419,7 +9238,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>598</v>
       </c>
@@ -8433,7 +9252,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>600</v>
       </c>
@@ -8447,7 +9266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>601</v>
       </c>
@@ -8461,7 +9280,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>602</v>
       </c>
@@ -8475,7 +9294,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>603</v>
       </c>
@@ -8489,7 +9308,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>604</v>
       </c>
@@ -8503,7 +9322,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>605</v>
       </c>
@@ -8517,7 +9336,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>606</v>
       </c>
@@ -8531,7 +9350,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>607</v>
       </c>
@@ -8545,7 +9364,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>609</v>
       </c>
@@ -8559,7 +9378,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>610</v>
       </c>
@@ -8573,7 +9392,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>611</v>
       </c>
@@ -8587,7 +9406,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>613</v>
       </c>
@@ -8601,7 +9420,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>614</v>
       </c>
@@ -8615,7 +9434,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>615</v>
       </c>
@@ -8629,7 +9448,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>616</v>
       </c>
@@ -8643,7 +9462,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>618</v>
       </c>
@@ -8657,7 +9476,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>619</v>
       </c>
@@ -8671,7 +9490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>620</v>
       </c>
@@ -8685,7 +9504,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>621</v>
       </c>
@@ -8699,7 +9518,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>622</v>
       </c>
@@ -8713,7 +9532,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>623</v>
       </c>
@@ -8727,7 +9546,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>624</v>
       </c>
@@ -8741,7 +9560,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>625</v>
       </c>
@@ -8755,7 +9574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>626</v>
       </c>
@@ -8769,7 +9588,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>627</v>
       </c>
@@ -8783,7 +9602,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>628</v>
       </c>
@@ -8797,7 +9616,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>629</v>
       </c>
@@ -8811,7 +9630,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>631</v>
       </c>
@@ -8825,7 +9644,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>632</v>
       </c>
@@ -8836,10 +9655,10 @@
         <v>617</v>
       </c>
       <c r="D438">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>633</v>
       </c>
@@ -8853,7 +9672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>634</v>
       </c>
@@ -8867,7 +9686,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>635</v>
       </c>
@@ -8881,7 +9700,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>636</v>
       </c>
@@ -8889,10 +9708,13 @@
         <v>637</v>
       </c>
       <c r="C442" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+      <c r="D442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>638</v>
       </c>
@@ -8900,10 +9722,13 @@
         <v>637</v>
       </c>
       <c r="C443" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+      <c r="D443">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>639</v>
       </c>
@@ -8911,10 +9736,13 @@
         <v>637</v>
       </c>
       <c r="C444" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+      <c r="D444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>640</v>
       </c>
@@ -8922,10 +9750,13 @@
         <v>637</v>
       </c>
       <c r="C445" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+      <c r="D445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>641</v>
       </c>
@@ -8933,54 +9764,69 @@
         <v>637</v>
       </c>
       <c r="C446" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+      <c r="D446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>642</v>
       </c>
       <c r="B447" t="s">
+        <v>643</v>
+      </c>
+      <c r="C447" t="s">
+        <v>637</v>
+      </c>
+      <c r="D447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A448" t="s">
+        <v>644</v>
+      </c>
+      <c r="B448" t="s">
+        <v>643</v>
+      </c>
+      <c r="C448" t="s">
+        <v>637</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A449" t="s">
+        <v>645</v>
+      </c>
+      <c r="B449" t="s">
+        <v>643</v>
+      </c>
+      <c r="C449" t="s">
+        <v>637</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A450" t="s">
         <v>646</v>
-      </c>
-      <c r="C447" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A448" t="s">
-        <v>643</v>
-      </c>
-      <c r="B448" t="s">
-        <v>646</v>
-      </c>
-      <c r="C448" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A449" t="s">
-        <v>644</v>
-      </c>
-      <c r="B449" t="s">
-        <v>646</v>
-      </c>
-      <c r="C449" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A450" t="s">
-        <v>645</v>
       </c>
       <c r="B450" t="s">
         <v>647</v>
       </c>
       <c r="C450" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+      <c r="D450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>648</v>
       </c>
@@ -8988,10 +9834,13 @@
         <v>647</v>
       </c>
       <c r="C451" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+      <c r="D451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>649</v>
       </c>
@@ -8999,10 +9848,13 @@
         <v>647</v>
       </c>
       <c r="C452" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+      <c r="D452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>650</v>
       </c>
@@ -9010,12 +9862,15 @@
         <v>647</v>
       </c>
       <c r="C453" t="s">
+        <v>637</v>
+      </c>
+      <c r="D453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A454" t="s">
         <v>651</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A454" t="s">
-        <v>653</v>
       </c>
       <c r="B454" t="s">
         <v>652</v>
@@ -9023,10 +9878,13 @@
       <c r="C454" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B455" t="s">
         <v>652</v>
@@ -9034,659 +9892,2556 @@
       <c r="C455" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>654</v>
       </c>
       <c r="B456" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C456" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B457" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C457" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A458" s="2" t="s">
+      <c r="D457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A458" t="s">
+        <v>657</v>
+      </c>
+      <c r="B458" t="s">
         <v>658</v>
       </c>
-      <c r="B458" t="s">
-        <v>664</v>
-      </c>
       <c r="C458" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+      <c r="D458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>659</v>
       </c>
       <c r="B459" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C459" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+      <c r="D459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>660</v>
       </c>
       <c r="B460" t="s">
+        <v>658</v>
+      </c>
+      <c r="C460" t="s">
+        <v>658</v>
+      </c>
+      <c r="D460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A461" t="s">
+        <v>661</v>
+      </c>
+      <c r="B461" t="s">
+        <v>662</v>
+      </c>
+      <c r="C461" t="s">
+        <v>658</v>
+      </c>
+      <c r="D461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A462" t="s">
+        <v>663</v>
+      </c>
+      <c r="B462" t="s">
+        <v>662</v>
+      </c>
+      <c r="C462" t="s">
+        <v>658</v>
+      </c>
+      <c r="D462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A463" t="s">
         <v>664</v>
       </c>
-      <c r="C460" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A461" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="B461" t="s">
-        <v>663</v>
-      </c>
-      <c r="C461" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A462" t="s">
-        <v>662</v>
-      </c>
-      <c r="B462" t="s">
-        <v>663</v>
-      </c>
-      <c r="C462" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A463" t="s">
+      <c r="B463" t="s">
         <v>665</v>
       </c>
-      <c r="B463" t="s">
-        <v>667</v>
-      </c>
       <c r="C463" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+      <c r="D463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>666</v>
       </c>
       <c r="B464" t="s">
+        <v>665</v>
+      </c>
+      <c r="C464" t="s">
+        <v>665</v>
+      </c>
+      <c r="D464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A465" t="s">
         <v>667</v>
       </c>
-      <c r="C464" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A465" t="s">
+      <c r="B465" t="s">
+        <v>665</v>
+      </c>
+      <c r="C465" t="s">
+        <v>665</v>
+      </c>
+      <c r="D465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A466" t="s">
         <v>668</v>
       </c>
-      <c r="B465" t="s">
-        <v>667</v>
-      </c>
-      <c r="C465" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A466" t="s">
+      <c r="B466" t="s">
+        <v>665</v>
+      </c>
+      <c r="C466" t="s">
+        <v>665</v>
+      </c>
+      <c r="D466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A467" t="s">
         <v>669</v>
       </c>
-      <c r="B466" t="s">
-        <v>667</v>
-      </c>
-      <c r="C466" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A467" t="s">
+      <c r="B467" t="s">
         <v>670</v>
       </c>
-      <c r="B467" t="s">
-        <v>672</v>
-      </c>
       <c r="C467" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+      <c r="D467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
         <v>671</v>
       </c>
       <c r="B468" t="s">
+        <v>670</v>
+      </c>
+      <c r="C468" t="s">
+        <v>665</v>
+      </c>
+      <c r="D468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A469" t="s">
         <v>672</v>
       </c>
-      <c r="C468" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A469" t="s">
+      <c r="B469" t="s">
         <v>673</v>
       </c>
-      <c r="B469" t="s">
+      <c r="C469" t="s">
+        <v>673</v>
+      </c>
+      <c r="D469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A470" t="s">
         <v>674</v>
       </c>
-      <c r="C469" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A470" t="s">
+      <c r="B470" t="s">
+        <v>673</v>
+      </c>
+      <c r="C470" t="s">
+        <v>673</v>
+      </c>
+      <c r="D470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A471" t="s">
         <v>675</v>
       </c>
-      <c r="B470" t="s">
-        <v>674</v>
-      </c>
-      <c r="C470" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A471" s="2" t="s">
+      <c r="B471" t="s">
         <v>676</v>
       </c>
-      <c r="B471" t="s">
-        <v>683</v>
-      </c>
       <c r="C471" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+        <v>673</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
         <v>677</v>
       </c>
       <c r="B472" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="C472" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+        <v>673</v>
+      </c>
+      <c r="D472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>678</v>
       </c>
       <c r="B473" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="C473" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+        <v>673</v>
+      </c>
+      <c r="D473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>679</v>
       </c>
       <c r="B474" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="C474" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+        <v>673</v>
+      </c>
+      <c r="D474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>680</v>
       </c>
       <c r="B475" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="C475" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+        <v>673</v>
+      </c>
+      <c r="D475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>681</v>
       </c>
       <c r="B476" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="C476" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+        <v>673</v>
+      </c>
+      <c r="D476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>682</v>
       </c>
       <c r="B477" t="s">
+        <v>676</v>
+      </c>
+      <c r="C477" t="s">
+        <v>673</v>
+      </c>
+      <c r="D477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A478" t="s">
         <v>683</v>
       </c>
-      <c r="C477" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A478" t="s">
+      <c r="B478" t="s">
         <v>684</v>
       </c>
-      <c r="B478" t="s">
+      <c r="C478" t="s">
+        <v>684</v>
+      </c>
+      <c r="D478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A479" t="s">
         <v>685</v>
       </c>
-      <c r="C478" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A479" t="s">
+      <c r="B479" t="s">
+        <v>684</v>
+      </c>
+      <c r="C479" t="s">
+        <v>684</v>
+      </c>
+      <c r="D479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A480" t="s">
         <v>686</v>
       </c>
-      <c r="B479" t="s">
-        <v>685</v>
-      </c>
-      <c r="C479" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A480" t="s">
+      <c r="B480" t="s">
         <v>687</v>
       </c>
-      <c r="B480" t="s">
+      <c r="C480" t="s">
+        <v>684</v>
+      </c>
+      <c r="D480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A481" t="s">
         <v>688</v>
       </c>
-      <c r="C480" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A481" t="s">
+      <c r="B481" t="s">
+        <v>687</v>
+      </c>
+      <c r="C481" t="s">
+        <v>684</v>
+      </c>
+      <c r="D481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A482" t="s">
         <v>689</v>
       </c>
-      <c r="B481" t="s">
-        <v>688</v>
-      </c>
-      <c r="C481" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A482" t="s">
+      <c r="B482" t="s">
         <v>690</v>
       </c>
-      <c r="B482" t="s">
+      <c r="C482" t="s">
+        <v>690</v>
+      </c>
+      <c r="D482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A483" t="s">
         <v>691</v>
       </c>
-      <c r="C482" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A483" t="s">
+      <c r="B483" t="s">
+        <v>690</v>
+      </c>
+      <c r="C483" t="s">
+        <v>690</v>
+      </c>
+      <c r="D483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A484" t="s">
         <v>692</v>
       </c>
-      <c r="B483" t="s">
-        <v>691</v>
-      </c>
-      <c r="C483" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A484" t="s">
+      <c r="B484" t="s">
+        <v>690</v>
+      </c>
+      <c r="C484" t="s">
+        <v>690</v>
+      </c>
+      <c r="D484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A485" t="s">
         <v>693</v>
       </c>
-      <c r="B484" t="s">
-        <v>691</v>
-      </c>
-      <c r="C484" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A485" t="s">
+      <c r="B485" t="s">
         <v>694</v>
       </c>
-      <c r="B485" t="s">
+      <c r="C485" t="s">
+        <v>690</v>
+      </c>
+      <c r="D485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A486" t="s">
         <v>695</v>
       </c>
-      <c r="C485" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A486" t="s">
+      <c r="B486" t="s">
+        <v>694</v>
+      </c>
+      <c r="C486" t="s">
+        <v>690</v>
+      </c>
+      <c r="D486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A487" t="s">
         <v>696</v>
       </c>
-      <c r="B486" t="s">
-        <v>695</v>
-      </c>
-      <c r="C486" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A487" t="s">
+      <c r="B487" t="s">
         <v>697</v>
       </c>
-      <c r="B487" t="s">
+      <c r="C487" t="s">
+        <v>697</v>
+      </c>
+      <c r="D487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A488" t="s">
         <v>698</v>
       </c>
-      <c r="C487" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A488" t="s">
+      <c r="B488" t="s">
+        <v>697</v>
+      </c>
+      <c r="C488" t="s">
+        <v>697</v>
+      </c>
+      <c r="D488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A489" t="s">
         <v>699</v>
       </c>
-      <c r="B488" t="s">
-        <v>698</v>
-      </c>
-      <c r="C488" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A489" t="s">
+      <c r="B489" t="s">
+        <v>697</v>
+      </c>
+      <c r="C489" t="s">
+        <v>697</v>
+      </c>
+      <c r="D489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A490" t="s">
         <v>700</v>
       </c>
-      <c r="B489" t="s">
-        <v>698</v>
-      </c>
-      <c r="C489" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A490" t="s">
+      <c r="B490" t="s">
+        <v>697</v>
+      </c>
+      <c r="C490" t="s">
+        <v>697</v>
+      </c>
+      <c r="D490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A491" t="s">
         <v>701</v>
       </c>
-      <c r="B490" t="s">
-        <v>698</v>
-      </c>
-      <c r="C490" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A491" t="s">
+      <c r="B491" t="s">
         <v>702</v>
       </c>
-      <c r="B491" t="s">
-        <v>704</v>
-      </c>
       <c r="C491" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+        <v>697</v>
+      </c>
+      <c r="D491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>703</v>
       </c>
       <c r="B492" t="s">
+        <v>702</v>
+      </c>
+      <c r="C492" t="s">
+        <v>697</v>
+      </c>
+      <c r="D492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A493" t="s">
         <v>704</v>
       </c>
-      <c r="C492" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A493" t="s">
+      <c r="B493" t="s">
         <v>705</v>
       </c>
-      <c r="B493" t="s">
-        <v>709</v>
-      </c>
       <c r="C493" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+      <c r="D493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>706</v>
       </c>
       <c r="B494" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C494" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+      <c r="D494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>707</v>
       </c>
       <c r="B495" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C495" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+      <c r="D495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>708</v>
       </c>
       <c r="B496" t="s">
+        <v>705</v>
+      </c>
+      <c r="C496" t="s">
+        <v>705</v>
+      </c>
+      <c r="D496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A497" t="s">
         <v>709</v>
       </c>
-      <c r="C496" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A497" s="2" t="s">
+      <c r="B497" t="s">
         <v>710</v>
       </c>
-      <c r="B497" t="s">
-        <v>712</v>
-      </c>
       <c r="C497" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+      <c r="D497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>711</v>
       </c>
       <c r="B498" t="s">
+        <v>710</v>
+      </c>
+      <c r="C498" t="s">
+        <v>705</v>
+      </c>
+      <c r="D498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A499" t="s">
         <v>712</v>
       </c>
-      <c r="C498" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A499" t="s">
+      <c r="B499" t="s">
         <v>713</v>
       </c>
-      <c r="B499" t="s">
-        <v>715</v>
-      </c>
       <c r="C499" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+        <v>713</v>
+      </c>
+      <c r="D499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>714</v>
       </c>
       <c r="B500" t="s">
+        <v>713</v>
+      </c>
+      <c r="C500" t="s">
+        <v>713</v>
+      </c>
+      <c r="D500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A501" t="s">
         <v>715</v>
       </c>
-      <c r="C500" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A501" t="s">
+      <c r="B501" t="s">
         <v>716</v>
       </c>
-      <c r="B501" t="s">
-        <v>718</v>
-      </c>
       <c r="C501" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+        <v>713</v>
+      </c>
+      <c r="D501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
         <v>717</v>
       </c>
       <c r="B502" t="s">
+        <v>716</v>
+      </c>
+      <c r="C502" t="s">
+        <v>713</v>
+      </c>
+      <c r="D502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A503" t="s">
         <v>718</v>
       </c>
-      <c r="C502" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A503" t="s">
+      <c r="B503" t="s">
+        <v>716</v>
+      </c>
+      <c r="C503" t="s">
+        <v>713</v>
+      </c>
+      <c r="D503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A504" t="s">
         <v>719</v>
       </c>
-      <c r="B503" t="s">
+      <c r="B504" t="s">
         <v>720</v>
       </c>
-      <c r="C503" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A504" t="s">
+      <c r="C504" t="s">
+        <v>720</v>
+      </c>
+      <c r="D504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A505" t="s">
         <v>721</v>
       </c>
-      <c r="B504" t="s">
+      <c r="B505" t="s">
+        <v>720</v>
+      </c>
+      <c r="C505" t="s">
+        <v>720</v>
+      </c>
+      <c r="D505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A506" t="s">
+        <v>722</v>
+      </c>
+      <c r="B506" t="s">
         <v>723</v>
       </c>
-      <c r="C504" t="s">
+      <c r="C506" t="s">
+        <v>720</v>
+      </c>
+      <c r="D506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A507" t="s">
+        <v>724</v>
+      </c>
+      <c r="B507" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A505" t="s">
-        <v>722</v>
-      </c>
-      <c r="B505" t="s">
+      <c r="C507" t="s">
+        <v>720</v>
+      </c>
+      <c r="D507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A508" t="s">
+        <v>725</v>
+      </c>
+      <c r="B508" t="s">
         <v>723</v>
       </c>
-      <c r="C505" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A506" t="s">
-        <v>724</v>
-      </c>
-      <c r="B506" t="s">
+      <c r="C508" t="s">
+        <v>720</v>
+      </c>
+      <c r="D508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A509" t="s">
         <v>726</v>
       </c>
-      <c r="C506" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A507" t="s">
-        <v>725</v>
-      </c>
-      <c r="B507" t="s">
-        <v>726</v>
-      </c>
-      <c r="C507" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A508" t="s">
+      <c r="B509" t="s">
         <v>727</v>
       </c>
-      <c r="B508" t="s">
-        <v>726</v>
-      </c>
-      <c r="C508" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A509" t="s">
+      <c r="C509" t="s">
+        <v>727</v>
+      </c>
+      <c r="D509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A510" t="s">
         <v>728</v>
       </c>
-      <c r="B509" t="s">
+      <c r="B510" t="s">
+        <v>727</v>
+      </c>
+      <c r="C510" t="s">
+        <v>727</v>
+      </c>
+      <c r="D510">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A511" t="s">
+        <v>729</v>
+      </c>
+      <c r="B511" t="s">
+        <v>730</v>
+      </c>
+      <c r="C511" t="s">
+        <v>727</v>
+      </c>
+      <c r="D511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A512" t="s">
         <v>731</v>
       </c>
-      <c r="C509" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A510" t="s">
-        <v>729</v>
-      </c>
-      <c r="B510" t="s">
-        <v>731</v>
-      </c>
-      <c r="C510" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A511" t="s">
+      <c r="B512" t="s">
         <v>730</v>
       </c>
-      <c r="B511" t="s">
+      <c r="C512" t="s">
+        <v>727</v>
+      </c>
+      <c r="D512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A513" t="s">
         <v>732</v>
       </c>
-      <c r="C511" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A512" t="s">
+      <c r="B513" t="s">
+        <v>730</v>
+      </c>
+      <c r="C513" t="s">
+        <v>727</v>
+      </c>
+      <c r="D513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A514" t="s">
         <v>733</v>
       </c>
-      <c r="B512" t="s">
-        <v>732</v>
-      </c>
-      <c r="C512" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A513" t="s">
+      <c r="B514" t="s">
+        <v>730</v>
+      </c>
+      <c r="C514" t="s">
+        <v>727</v>
+      </c>
+      <c r="D514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A515" t="s">
         <v>734</v>
       </c>
-      <c r="B513" t="s">
-        <v>732</v>
-      </c>
-      <c r="C513" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A514" t="s">
+      <c r="B515" t="s">
         <v>735</v>
       </c>
-      <c r="B514" t="s">
-        <v>732</v>
-      </c>
-      <c r="C514" t="s">
-        <v>731</v>
+      <c r="C515" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A516" t="s">
+        <v>736</v>
+      </c>
+      <c r="B516" t="s">
+        <v>735</v>
+      </c>
+      <c r="C516" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A517" t="s">
+        <v>737</v>
+      </c>
+      <c r="B517" t="s">
+        <v>735</v>
+      </c>
+      <c r="C517" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A518" t="s">
+        <v>738</v>
+      </c>
+      <c r="B518" t="s">
+        <v>739</v>
+      </c>
+      <c r="C518" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A519" t="s">
+        <v>740</v>
+      </c>
+      <c r="B519" t="s">
+        <v>739</v>
+      </c>
+      <c r="C519" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A520" t="s">
+        <v>741</v>
+      </c>
+      <c r="B520" t="s">
+        <v>742</v>
+      </c>
+      <c r="C520" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A521" t="s">
+        <v>743</v>
+      </c>
+      <c r="B521" t="s">
+        <v>742</v>
+      </c>
+      <c r="C521" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A522" t="s">
+        <v>744</v>
+      </c>
+      <c r="B522" t="s">
+        <v>746</v>
+      </c>
+      <c r="C522" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A523" t="s">
+        <v>745</v>
+      </c>
+      <c r="B523" t="s">
+        <v>746</v>
+      </c>
+      <c r="C523" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A524" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B524" t="s">
+        <v>749</v>
+      </c>
+      <c r="C524" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A525" t="s">
+        <v>748</v>
+      </c>
+      <c r="B525" t="s">
+        <v>749</v>
+      </c>
+      <c r="C525" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A526" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B526" t="s">
+        <v>752</v>
+      </c>
+      <c r="C526" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A527" t="s">
+        <v>751</v>
+      </c>
+      <c r="B527" t="s">
+        <v>752</v>
+      </c>
+      <c r="C527" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A528" t="s">
+        <v>753</v>
+      </c>
+      <c r="B528" t="s">
+        <v>755</v>
+      </c>
+      <c r="C528" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A529" t="s">
+        <v>754</v>
+      </c>
+      <c r="B529" t="s">
+        <v>755</v>
+      </c>
+      <c r="C529" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A530" t="s">
+        <v>756</v>
+      </c>
+      <c r="B530" t="s">
+        <v>757</v>
+      </c>
+      <c r="C530" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A531" t="s">
+        <v>758</v>
+      </c>
+      <c r="B531" t="s">
+        <v>757</v>
+      </c>
+      <c r="C531" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A532" t="s">
+        <v>759</v>
+      </c>
+      <c r="B532" t="s">
+        <v>757</v>
+      </c>
+      <c r="C532" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A533" t="s">
+        <v>760</v>
+      </c>
+      <c r="B533" t="s">
+        <v>757</v>
+      </c>
+      <c r="C533" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A534" t="s">
+        <v>761</v>
+      </c>
+      <c r="B534" t="s">
+        <v>765</v>
+      </c>
+      <c r="C534" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A535" t="s">
+        <v>762</v>
+      </c>
+      <c r="B535" t="s">
+        <v>765</v>
+      </c>
+      <c r="C535" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A536" t="s">
+        <v>763</v>
+      </c>
+      <c r="B536" t="s">
+        <v>766</v>
+      </c>
+      <c r="C536" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A537" t="s">
+        <v>764</v>
+      </c>
+      <c r="B537" t="s">
+        <v>766</v>
+      </c>
+      <c r="C537" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A538" t="s">
+        <v>767</v>
+      </c>
+      <c r="B538" t="s">
+        <v>769</v>
+      </c>
+      <c r="C538" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A539" t="s">
+        <v>768</v>
+      </c>
+      <c r="B539" t="s">
+        <v>769</v>
+      </c>
+      <c r="C539" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A540" t="s">
+        <v>770</v>
+      </c>
+      <c r="B540" t="s">
+        <v>774</v>
+      </c>
+      <c r="C540" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A541" t="s">
+        <v>771</v>
+      </c>
+      <c r="B541" t="s">
+        <v>774</v>
+      </c>
+      <c r="C541" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A542" t="s">
+        <v>772</v>
+      </c>
+      <c r="B542" t="s">
+        <v>774</v>
+      </c>
+      <c r="C542" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A543" t="s">
+        <v>773</v>
+      </c>
+      <c r="B543" t="s">
+        <v>774</v>
+      </c>
+      <c r="C543" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A544" t="s">
+        <v>775</v>
+      </c>
+      <c r="B544" t="s">
+        <v>779</v>
+      </c>
+      <c r="C544" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A545" t="s">
+        <v>776</v>
+      </c>
+      <c r="B545" t="s">
+        <v>779</v>
+      </c>
+      <c r="C545" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A546" t="s">
+        <v>777</v>
+      </c>
+      <c r="B546" t="s">
+        <v>779</v>
+      </c>
+      <c r="C546" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A547" t="s">
+        <v>778</v>
+      </c>
+      <c r="B547" t="s">
+        <v>779</v>
+      </c>
+      <c r="C547" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A548" t="s">
+        <v>781</v>
+      </c>
+      <c r="B548" t="s">
+        <v>780</v>
+      </c>
+      <c r="C548" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A549" t="s">
+        <v>782</v>
+      </c>
+      <c r="B549" t="s">
+        <v>780</v>
+      </c>
+      <c r="C549" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A550" t="s">
+        <v>783</v>
+      </c>
+      <c r="B550" t="s">
+        <v>785</v>
+      </c>
+      <c r="C550" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A551" t="s">
+        <v>784</v>
+      </c>
+      <c r="B551" t="s">
+        <v>785</v>
+      </c>
+      <c r="C551" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A552" t="s">
+        <v>786</v>
+      </c>
+      <c r="B552" t="s">
+        <v>790</v>
+      </c>
+      <c r="C552" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A553" t="s">
+        <v>787</v>
+      </c>
+      <c r="B553" t="s">
+        <v>790</v>
+      </c>
+      <c r="C553" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A554" t="s">
+        <v>788</v>
+      </c>
+      <c r="B554" t="s">
+        <v>791</v>
+      </c>
+      <c r="C554" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A555" t="s">
+        <v>789</v>
+      </c>
+      <c r="B555" t="s">
+        <v>791</v>
+      </c>
+      <c r="C555" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A556" t="s">
+        <v>792</v>
+      </c>
+      <c r="B556" t="s">
+        <v>794</v>
+      </c>
+      <c r="C556" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A557" t="s">
+        <v>793</v>
+      </c>
+      <c r="B557" t="s">
+        <v>794</v>
+      </c>
+      <c r="C557" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A558" t="s">
+        <v>795</v>
+      </c>
+      <c r="B558" t="s">
+        <v>794</v>
+      </c>
+      <c r="C558" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A559" t="s">
+        <v>796</v>
+      </c>
+      <c r="B559" t="s">
+        <v>794</v>
+      </c>
+      <c r="C559" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A560" t="s">
+        <v>797</v>
+      </c>
+      <c r="B560" t="s">
+        <v>801</v>
+      </c>
+      <c r="C560" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A561" t="s">
+        <v>798</v>
+      </c>
+      <c r="B561" t="s">
+        <v>801</v>
+      </c>
+      <c r="C561" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A562" t="s">
+        <v>799</v>
+      </c>
+      <c r="B562" t="s">
+        <v>801</v>
+      </c>
+      <c r="C562" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A563" t="s">
+        <v>800</v>
+      </c>
+      <c r="B563" t="s">
+        <v>801</v>
+      </c>
+      <c r="C563" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A564" t="s">
+        <v>802</v>
+      </c>
+      <c r="B564" t="s">
+        <v>804</v>
+      </c>
+      <c r="C564" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A565" t="s">
+        <v>803</v>
+      </c>
+      <c r="B565" t="s">
+        <v>804</v>
+      </c>
+      <c r="C565" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A566" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B566" t="s">
+        <v>807</v>
+      </c>
+      <c r="C566" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A567" t="s">
+        <v>806</v>
+      </c>
+      <c r="B567" t="s">
+        <v>807</v>
+      </c>
+      <c r="C567" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A568" t="s">
+        <v>808</v>
+      </c>
+      <c r="B568" t="s">
+        <v>810</v>
+      </c>
+      <c r="C568" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A569" t="s">
+        <v>809</v>
+      </c>
+      <c r="B569" t="s">
+        <v>810</v>
+      </c>
+      <c r="C569" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A570" t="s">
+        <v>812</v>
+      </c>
+      <c r="B570" t="s">
+        <v>814</v>
+      </c>
+      <c r="C570" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A571" t="s">
+        <v>813</v>
+      </c>
+      <c r="B571" t="s">
+        <v>814</v>
+      </c>
+      <c r="C571" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A572" t="s">
+        <v>815</v>
+      </c>
+      <c r="B572" t="s">
+        <v>821</v>
+      </c>
+      <c r="C572" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A573" t="s">
+        <v>816</v>
+      </c>
+      <c r="B573" t="s">
+        <v>821</v>
+      </c>
+      <c r="C573" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A574" t="s">
+        <v>817</v>
+      </c>
+      <c r="B574" t="s">
+        <v>821</v>
+      </c>
+      <c r="C574" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A575" t="s">
+        <v>818</v>
+      </c>
+      <c r="B575" t="s">
+        <v>821</v>
+      </c>
+      <c r="C575" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A576" t="s">
+        <v>819</v>
+      </c>
+      <c r="B576" t="s">
+        <v>821</v>
+      </c>
+      <c r="C576" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A577" t="s">
+        <v>820</v>
+      </c>
+      <c r="B577" t="s">
+        <v>821</v>
+      </c>
+      <c r="C577" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A578" t="s">
+        <v>822</v>
+      </c>
+      <c r="B578" t="s">
+        <v>826</v>
+      </c>
+      <c r="C578" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A579" t="s">
+        <v>823</v>
+      </c>
+      <c r="B579" t="s">
+        <v>826</v>
+      </c>
+      <c r="C579" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A580" t="s">
+        <v>824</v>
+      </c>
+      <c r="B580" t="s">
+        <v>826</v>
+      </c>
+      <c r="C580" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A581" t="s">
+        <v>825</v>
+      </c>
+      <c r="B581" t="s">
+        <v>826</v>
+      </c>
+      <c r="C581" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A582" t="s">
+        <v>827</v>
+      </c>
+      <c r="B582" t="s">
+        <v>831</v>
+      </c>
+      <c r="C582" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A583" t="s">
+        <v>828</v>
+      </c>
+      <c r="B583" t="s">
+        <v>831</v>
+      </c>
+      <c r="C583" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A584" t="s">
+        <v>829</v>
+      </c>
+      <c r="B584" t="s">
+        <v>832</v>
+      </c>
+      <c r="C584" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A585" t="s">
+        <v>830</v>
+      </c>
+      <c r="B585" t="s">
+        <v>832</v>
+      </c>
+      <c r="C585" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A586" t="s">
+        <v>833</v>
+      </c>
+      <c r="B586" t="s">
+        <v>835</v>
+      </c>
+      <c r="C586" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A587" t="s">
+        <v>834</v>
+      </c>
+      <c r="B587" t="s">
+        <v>835</v>
+      </c>
+      <c r="C587" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A588" t="s">
+        <v>836</v>
+      </c>
+      <c r="B588" t="s">
+        <v>835</v>
+      </c>
+      <c r="C588" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A589" t="s">
+        <v>841</v>
+      </c>
+      <c r="B589" t="s">
+        <v>835</v>
+      </c>
+      <c r="C589" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A590" t="s">
+        <v>837</v>
+      </c>
+      <c r="B590" t="s">
+        <v>833</v>
+      </c>
+      <c r="C590" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A591" t="s">
+        <v>840</v>
+      </c>
+      <c r="B591" t="s">
+        <v>833</v>
+      </c>
+      <c r="C591" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A592" t="s">
+        <v>838</v>
+      </c>
+      <c r="B592" t="s">
+        <v>833</v>
+      </c>
+      <c r="C592" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A593" t="s">
+        <v>839</v>
+      </c>
+      <c r="B593" t="s">
+        <v>833</v>
+      </c>
+      <c r="C593" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A594" t="s">
+        <v>842</v>
+      </c>
+      <c r="B594" t="s">
+        <v>848</v>
+      </c>
+      <c r="C594" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A595" t="s">
+        <v>843</v>
+      </c>
+      <c r="B595" t="s">
+        <v>848</v>
+      </c>
+      <c r="C595" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A596" t="s">
+        <v>844</v>
+      </c>
+      <c r="B596" t="s">
+        <v>848</v>
+      </c>
+      <c r="C596" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A597" t="s">
+        <v>845</v>
+      </c>
+      <c r="B597" t="s">
+        <v>848</v>
+      </c>
+      <c r="C597" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A598" t="s">
+        <v>846</v>
+      </c>
+      <c r="B598" t="s">
+        <v>848</v>
+      </c>
+      <c r="C598" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A599" t="s">
+        <v>847</v>
+      </c>
+      <c r="B599" t="s">
+        <v>848</v>
+      </c>
+      <c r="C599" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A600" t="s">
+        <v>849</v>
+      </c>
+      <c r="B600" t="s">
+        <v>851</v>
+      </c>
+      <c r="C600" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A601" t="s">
+        <v>850</v>
+      </c>
+      <c r="B601" t="s">
+        <v>851</v>
+      </c>
+      <c r="C601" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A602" t="s">
+        <v>852</v>
+      </c>
+      <c r="B602" t="s">
+        <v>855</v>
+      </c>
+      <c r="C602" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A603" t="s">
+        <v>853</v>
+      </c>
+      <c r="B603" t="s">
+        <v>855</v>
+      </c>
+      <c r="C603" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A604" t="s">
+        <v>854</v>
+      </c>
+      <c r="B604" t="s">
+        <v>855</v>
+      </c>
+      <c r="C604" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A605" t="s">
+        <v>856</v>
+      </c>
+      <c r="B605" t="s">
+        <v>860</v>
+      </c>
+      <c r="C605" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A606" t="s">
+        <v>857</v>
+      </c>
+      <c r="B606" t="s">
+        <v>860</v>
+      </c>
+      <c r="C606" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A607" t="s">
+        <v>858</v>
+      </c>
+      <c r="B607" t="s">
+        <v>860</v>
+      </c>
+      <c r="C607" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A608" t="s">
+        <v>859</v>
+      </c>
+      <c r="B608" t="s">
+        <v>860</v>
+      </c>
+      <c r="C608" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A609" t="s">
+        <v>861</v>
+      </c>
+      <c r="B609" t="s">
+        <v>866</v>
+      </c>
+      <c r="C609" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A610" t="s">
+        <v>862</v>
+      </c>
+      <c r="B610" t="s">
+        <v>866</v>
+      </c>
+      <c r="C610" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A611" t="s">
+        <v>863</v>
+      </c>
+      <c r="B611" t="s">
+        <v>866</v>
+      </c>
+      <c r="C611" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A612" t="s">
+        <v>864</v>
+      </c>
+      <c r="B612" t="s">
+        <v>866</v>
+      </c>
+      <c r="C612" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A613" t="s">
+        <v>865</v>
+      </c>
+      <c r="B613" t="s">
+        <v>866</v>
+      </c>
+      <c r="C613" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A614" t="s">
+        <v>867</v>
+      </c>
+      <c r="B614" t="s">
+        <v>869</v>
+      </c>
+      <c r="C614" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A615" t="s">
+        <v>868</v>
+      </c>
+      <c r="B615" t="s">
+        <v>869</v>
+      </c>
+      <c r="C615" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A616" t="s">
+        <v>870</v>
+      </c>
+      <c r="B616" t="s">
+        <v>873</v>
+      </c>
+      <c r="C616" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A617" t="s">
+        <v>871</v>
+      </c>
+      <c r="B617" t="s">
+        <v>873</v>
+      </c>
+      <c r="C617" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A618" t="s">
+        <v>872</v>
+      </c>
+      <c r="B618" t="s">
+        <v>873</v>
+      </c>
+      <c r="C618" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A619" t="s">
+        <v>874</v>
+      </c>
+      <c r="B619" t="s">
+        <v>876</v>
+      </c>
+      <c r="C619" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A620" t="s">
+        <v>875</v>
+      </c>
+      <c r="B620" t="s">
+        <v>876</v>
+      </c>
+      <c r="C620" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A621" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B621" t="s">
+        <v>879</v>
+      </c>
+      <c r="C621" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A622" t="s">
+        <v>878</v>
+      </c>
+      <c r="B622" t="s">
+        <v>879</v>
+      </c>
+      <c r="C622" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A623" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B623" t="s">
+        <v>885</v>
+      </c>
+      <c r="C623" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A624" t="s">
+        <v>881</v>
+      </c>
+      <c r="B624" t="s">
+        <v>885</v>
+      </c>
+      <c r="C624" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A625" t="s">
+        <v>882</v>
+      </c>
+      <c r="B625" t="s">
+        <v>885</v>
+      </c>
+      <c r="C625" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A626" t="s">
+        <v>886</v>
+      </c>
+      <c r="B626" t="s">
+        <v>885</v>
+      </c>
+      <c r="C626" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A627" t="s">
+        <v>883</v>
+      </c>
+      <c r="B627" t="s">
+        <v>885</v>
+      </c>
+      <c r="C627" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A628" t="s">
+        <v>884</v>
+      </c>
+      <c r="B628" t="s">
+        <v>885</v>
+      </c>
+      <c r="C628" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A629" t="s">
+        <v>887</v>
+      </c>
+      <c r="B629" t="s">
+        <v>895</v>
+      </c>
+      <c r="C629" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A630" t="s">
+        <v>888</v>
+      </c>
+      <c r="B630" t="s">
+        <v>895</v>
+      </c>
+      <c r="C630" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A631" t="s">
+        <v>889</v>
+      </c>
+      <c r="B631" t="s">
+        <v>895</v>
+      </c>
+      <c r="C631" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A632" t="s">
+        <v>890</v>
+      </c>
+      <c r="B632" t="s">
+        <v>895</v>
+      </c>
+      <c r="C632" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A633" t="s">
+        <v>891</v>
+      </c>
+      <c r="B633" t="s">
+        <v>895</v>
+      </c>
+      <c r="C633" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A634" t="s">
+        <v>892</v>
+      </c>
+      <c r="B634" t="s">
+        <v>895</v>
+      </c>
+      <c r="C634" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A635" t="s">
+        <v>893</v>
+      </c>
+      <c r="B635" t="s">
+        <v>895</v>
+      </c>
+      <c r="C635" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A636" t="s">
+        <v>894</v>
+      </c>
+      <c r="B636" t="s">
+        <v>895</v>
+      </c>
+      <c r="C636" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A637" t="s">
+        <v>896</v>
+      </c>
+      <c r="B637" t="s">
+        <v>898</v>
+      </c>
+      <c r="C637" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A638" t="s">
+        <v>897</v>
+      </c>
+      <c r="B638" t="s">
+        <v>898</v>
+      </c>
+      <c r="C638" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A639" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B639" t="s">
+        <v>903</v>
+      </c>
+      <c r="C639" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A640" t="s">
+        <v>900</v>
+      </c>
+      <c r="B640" t="s">
+        <v>903</v>
+      </c>
+      <c r="C640" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A641" t="s">
+        <v>901</v>
+      </c>
+      <c r="B641" t="s">
+        <v>903</v>
+      </c>
+      <c r="C641" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A642" t="s">
+        <v>902</v>
+      </c>
+      <c r="B642" t="s">
+        <v>903</v>
+      </c>
+      <c r="C642" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A643" t="s">
+        <v>904</v>
+      </c>
+      <c r="B643" t="s">
+        <v>908</v>
+      </c>
+      <c r="C643" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A644" t="s">
+        <v>905</v>
+      </c>
+      <c r="B644" t="s">
+        <v>908</v>
+      </c>
+      <c r="C644" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A645" t="s">
+        <v>906</v>
+      </c>
+      <c r="B645" t="s">
+        <v>908</v>
+      </c>
+      <c r="C645" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A646" t="s">
+        <v>907</v>
+      </c>
+      <c r="B646" t="s">
+        <v>908</v>
+      </c>
+      <c r="C646" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A647" t="s">
+        <v>909</v>
+      </c>
+      <c r="B647" t="s">
+        <v>913</v>
+      </c>
+      <c r="C647" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A648" t="s">
+        <v>911</v>
+      </c>
+      <c r="B648" t="s">
+        <v>913</v>
+      </c>
+      <c r="C648" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A649" t="s">
+        <v>910</v>
+      </c>
+      <c r="B649" t="s">
+        <v>913</v>
+      </c>
+      <c r="C649" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A650" t="s">
+        <v>912</v>
+      </c>
+      <c r="B650" t="s">
+        <v>913</v>
+      </c>
+      <c r="C650" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A651" t="s">
+        <v>914</v>
+      </c>
+      <c r="B651" t="s">
+        <v>916</v>
+      </c>
+      <c r="C651" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A652" t="s">
+        <v>915</v>
+      </c>
+      <c r="B652" t="s">
+        <v>916</v>
+      </c>
+      <c r="C652" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A653" t="s">
+        <v>917</v>
+      </c>
+      <c r="B653" t="s">
+        <v>916</v>
+      </c>
+      <c r="C653" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A654" t="s">
+        <v>918</v>
+      </c>
+      <c r="B654" t="s">
+        <v>916</v>
+      </c>
+      <c r="C654" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A655" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B655" t="s">
+        <v>925</v>
+      </c>
+      <c r="C655" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A656" t="s">
+        <v>920</v>
+      </c>
+      <c r="B656" t="s">
+        <v>925</v>
+      </c>
+      <c r="C656" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A657" t="s">
+        <v>921</v>
+      </c>
+      <c r="B657" t="s">
+        <v>925</v>
+      </c>
+      <c r="C657" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A658" t="s">
+        <v>922</v>
+      </c>
+      <c r="B658" t="s">
+        <v>925</v>
+      </c>
+      <c r="C658" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A659" t="s">
+        <v>923</v>
+      </c>
+      <c r="B659" t="s">
+        <v>925</v>
+      </c>
+      <c r="C659" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A660" t="s">
+        <v>924</v>
+      </c>
+      <c r="B660" t="s">
+        <v>925</v>
+      </c>
+      <c r="C660" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A661" t="s">
+        <v>926</v>
+      </c>
+      <c r="B661" t="s">
+        <v>927</v>
+      </c>
+      <c r="C661" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A662" t="s">
+        <v>928</v>
+      </c>
+      <c r="B662" t="s">
+        <v>927</v>
+      </c>
+      <c r="C662" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A663" t="s">
+        <v>929</v>
+      </c>
+      <c r="B663" t="s">
+        <v>927</v>
+      </c>
+      <c r="C663" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A664" t="s">
+        <v>930</v>
+      </c>
+      <c r="B664" t="s">
+        <v>927</v>
+      </c>
+      <c r="C664" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A665" t="s">
+        <v>931</v>
+      </c>
+      <c r="B665" t="s">
+        <v>933</v>
+      </c>
+      <c r="C665" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A666" t="s">
+        <v>932</v>
+      </c>
+      <c r="B666" t="s">
+        <v>933</v>
+      </c>
+      <c r="C666" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A667" t="s">
+        <v>934</v>
+      </c>
+      <c r="B667" t="s">
+        <v>938</v>
+      </c>
+      <c r="C667" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A668" t="s">
+        <v>935</v>
+      </c>
+      <c r="B668" t="s">
+        <v>938</v>
+      </c>
+      <c r="C668" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A669" t="s">
+        <v>936</v>
+      </c>
+      <c r="B669" t="s">
+        <v>939</v>
+      </c>
+      <c r="C669" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A670" t="s">
+        <v>937</v>
+      </c>
+      <c r="B670" t="s">
+        <v>939</v>
+      </c>
+      <c r="C670" t="s">
+        <v>938</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/학습자료/단답형/국어_57항.xlsx
+++ b/학습자료/단답형/국어_57항.xlsx
@@ -12152,7 +12152,7 @@
         </is>
       </c>
       <c r="D586" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="587">
@@ -13872,7 +13872,7 @@
         </is>
       </c>
       <c r="D672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
@@ -14212,7 +14212,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -14312,7 +14312,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">

--- a/학습자료/단답형/국어_57항.xlsx
+++ b/학습자료/단답형/국어_57항.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9472,7 +9472,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -10632,7 +10632,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -11072,7 +11072,7 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -11852,7 +11852,7 @@
         </is>
       </c>
       <c r="D571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
@@ -12252,7 +12252,7 @@
         </is>
       </c>
       <c r="D591" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="592">
@@ -12532,7 +12532,7 @@
         </is>
       </c>
       <c r="D605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="D607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
@@ -12592,7 +12592,7 @@
         </is>
       </c>
       <c r="D608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609">
@@ -12652,7 +12652,7 @@
         </is>
       </c>
       <c r="D611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
@@ -12732,7 +12732,7 @@
         </is>
       </c>
       <c r="D615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
@@ -12812,7 +12812,7 @@
         </is>
       </c>
       <c r="D619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="D626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -12992,7 +12992,7 @@
         </is>
       </c>
       <c r="D628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
@@ -13112,7 +13112,7 @@
         </is>
       </c>
       <c r="D634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
@@ -13132,7 +13132,7 @@
         </is>
       </c>
       <c r="D635" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636">
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="D643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
@@ -13312,7 +13312,7 @@
         </is>
       </c>
       <c r="D644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
@@ -13472,7 +13472,7 @@
         </is>
       </c>
       <c r="D652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
@@ -13552,7 +13552,7 @@
         </is>
       </c>
       <c r="D656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
@@ -13652,7 +13652,7 @@
         </is>
       </c>
       <c r="D661" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
@@ -13672,7 +13672,7 @@
         </is>
       </c>
       <c r="D662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
@@ -13892,7 +13892,7 @@
         </is>
       </c>
       <c r="D673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
@@ -13912,7 +13912,7 @@
         </is>
       </c>
       <c r="D674" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="675">
@@ -13932,7 +13932,7 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
@@ -13992,7 +13992,7 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679">
@@ -14072,7 +14072,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
@@ -14152,7 +14152,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687">
@@ -14432,7 +14432,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701">
@@ -14452,7 +14452,7 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
@@ -14612,7 +14612,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710">
@@ -14712,7 +14712,7 @@
         </is>
       </c>
       <c r="D714" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715">
@@ -14892,7 +14892,7 @@
         </is>
       </c>
       <c r="D723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724">
@@ -14952,7 +14952,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727">
@@ -14992,7 +14992,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729">
@@ -15012,7 +15012,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730">
@@ -15092,7 +15092,7 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734">
